--- a/source/class_schedule_xlsx.xlsx
+++ b/source/class_schedule_xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nick/github/unifyingdatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98FA6E89-FEA7-384D-B9B6-5BC63BAD3253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9790C977-28CE-4A45-B4B4-44AFA0304834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35240" windowHeight="19520" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
@@ -168,9 +168,6 @@
 - Optional: `Discussion in part About Experiments in Advertising &lt;https://overcast.fm/+QLduPjO1I&gt;`_</t>
   </si>
   <si>
-    <t>- `Taxonomy of Questions &lt;taxonomy_of_questions.ipynb&gt;`_</t>
-  </si>
-  <si>
     <t>- `DS Workflow &lt;https://www.practicaldatascience.org/html/workflow.html&gt;`_
 - `A Model Code Review &lt;https://www.practicaldatascience.org/html/pr_review.html&gt;`_
 - **Backwards Design Due**</t>
@@ -468,6 +465,10 @@
   </si>
   <si>
     <t>- `Stakeholder Management &lt;exercises/exercise_generating_questions.ipynb&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Taxonomy of Questions &lt;taxonomy_of_questions.ipynb&gt;`_
+- `Adversarial Users &lt;https://www.vice.com/en_us/article/pa7dj9/flawed-algorithms-are-grading-millions-of-students-essays&gt;`_</t>
   </si>
 </sst>
 </file>
@@ -872,8 +873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69B7305-17E2-2E47-A46F-9F5E56C2016C}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -900,7 +901,7 @@
     </row>
     <row r="2" spans="1:4" ht="113">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>7</v>
@@ -912,13 +913,13 @@
     </row>
     <row r="3" spans="1:4" ht="119">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>26</v>
@@ -926,130 +927,130 @@
     </row>
     <row r="4" spans="1:4" ht="34">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="136">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>27</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="247" customHeight="1">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="102">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="245" customHeight="1">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="167" customHeight="1">
       <c r="A11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>90</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="72" customHeight="1">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="187">
       <c r="A13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>17</v>
@@ -1057,7 +1058,7 @@
     </row>
     <row r="14" spans="1:4" ht="119">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>9</v>
@@ -1066,18 +1067,18 @@
         <v>28</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="204">
       <c r="A15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>18</v>
@@ -1085,32 +1086,32 @@
     </row>
     <row r="16" spans="1:4" ht="144" customHeight="1">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="103" customHeight="1">
       <c r="A17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="63" customHeight="1">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>6</v>
@@ -1119,40 +1120,40 @@
         <v>29</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="29">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="43">
       <c r="A21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>31</v>
+        <v>96</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>13</v>
@@ -1160,7 +1161,7 @@
     </row>
     <row r="22" spans="1:4" ht="17">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>22</v>
@@ -1171,18 +1172,18 @@
     </row>
     <row r="23" spans="1:4" ht="68">
       <c r="A23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="29">
       <c r="A24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>5</v>
@@ -1196,43 +1197,43 @@
     </row>
     <row r="25" spans="1:4" ht="409.6">
       <c r="A25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="255">
       <c r="A26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="102">
       <c r="A27" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="34">
       <c r="A28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B28" t="s">
         <v>19</v>
@@ -1243,7 +1244,7 @@
     </row>
     <row r="29" spans="1:4" ht="68">
       <c r="A29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>20</v>
@@ -1254,7 +1255,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="B30" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/source/class_schedule_xlsx.xlsx
+++ b/source/class_schedule_xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nick/github/unifyingdatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9790C977-28CE-4A45-B4B4-44AFA0304834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79210FD1-1392-1446-9474-F0E861760E00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35240" windowHeight="19520" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
@@ -467,8 +467,10 @@
     <t>- `Stakeholder Management &lt;exercises/exercise_generating_questions.ipynb&gt;`_</t>
   </si>
   <si>
-    <t>- `Taxonomy of Questions &lt;taxonomy_of_questions.ipynb&gt;`_
-- `Adversarial Users &lt;https://www.vice.com/en_us/article/pa7dj9/flawed-algorithms-are-grading-millions-of-students-essays&gt;`_</t>
+    <t xml:space="preserve">- `Taxonomy of Questions &lt;taxonomy_of_questions.ipynb&gt;`_
+- `Adversarial Users &lt;https://www.theverge.com/2020/9/2/21419012/edgenuity-online-class-ai-grading-keyword-mashing-students-school-cheating-algorithm-glitch&gt;`)
+- `More Essay Issues &lt;https://www.vice.com/en_us/article/pa7dj9/flawed-algorithms-are-grading-millions-of-students-essays&gt;`_
+</t>
   </si>
 </sst>
 </file>
@@ -873,7 +875,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69B7305-17E2-2E47-A46F-9F5E56C2016C}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
@@ -1145,7 +1147,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="43">
+    <row r="21" spans="1:4" ht="85">
       <c r="A21" t="s">
         <v>68</v>
       </c>

--- a/source/class_schedule_xlsx.xlsx
+++ b/source/class_schedule_xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nick/github/unifyingdatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79210FD1-1392-1446-9474-F0E861760E00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E2F0811-BDA3-864B-9545-CAFFD597FA67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35240" windowHeight="19520" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
@@ -468,7 +468,7 @@
   </si>
   <si>
     <t xml:space="preserve">- `Taxonomy of Questions &lt;taxonomy_of_questions.ipynb&gt;`_
-- `Adversarial Users &lt;https://www.theverge.com/2020/9/2/21419012/edgenuity-online-class-ai-grading-keyword-mashing-students-school-cheating-algorithm-glitch&gt;`)
+- `Adversarial Users &lt;https://www.theverge.com/2020/9/2/21419012/edgenuity-online-class-ai-grading-keyword-mashing-students-school-cheating-algorithm-glitch&gt;`_
 - `More Essay Issues &lt;https://www.vice.com/en_us/article/pa7dj9/flawed-algorithms-are-grading-millions-of-students-essays&gt;`_
 </t>
   </si>
